--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="841">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="841">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30666,7 +30666,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30684,7 +30684,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
@@ -30756,7 +30756,7 @@
         <v>90</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
@@ -30768,7 +30768,7 @@
         <v>90</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>90</v>
@@ -32064,7 +32064,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>90</v>
@@ -32076,10 +32076,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32094,7 +32094,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32109,7 +32109,7 @@
         <v>90</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>118</v>
+        <v>465</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>90</v>
@@ -32133,7 +32133,7 @@
         <v>90</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>90</v>
@@ -32148,22 +32148,22 @@
         <v>90</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>118</v>
+        <v>465</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -32766,7 +32766,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>90</v>
@@ -32784,7 +32784,7 @@
         <v>90</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>90</v>
@@ -32796,10 +32796,10 @@
         <v>90</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>90</v>
@@ -32808,10 +32808,10 @@
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -32835,7 +32835,7 @@
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>90</v>
@@ -32850,7 +32850,7 @@
         <v>90</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>90</v>
@@ -32992,7 +32992,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -33004,7 +33004,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33046,7 +33046,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33061,7 +33061,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -33076,7 +33076,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33088,7 +33088,7 @@
         <v>90</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="AK22" s="5" t="s">
         <v>90</v>
@@ -33105,7 +33105,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>90</v>
@@ -33153,7 +33153,7 @@
         <v>90</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>90</v>
@@ -33165,7 +33165,7 @@
         <v>90</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>90</v>
@@ -33352,46 +33352,46 @@
         <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33403,7 +33403,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33427,10 +33427,10 @@
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33439,10 +33439,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26">
@@ -33456,7 +33456,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33522,10 +33522,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33685,52 +33685,52 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>90</v>
@@ -33739,7 +33739,7 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
@@ -33748,7 +33748,7 @@
         <v>90</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33760,13 +33760,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33775,13 +33775,13 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>90</v>
@@ -34033,7 +34033,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>90</v>
@@ -34081,7 +34081,7 @@
         <v>90</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>90</v>
@@ -34117,7 +34117,7 @@
         <v>90</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF31" s="5" t="s">
         <v>90</v>
@@ -34126,7 +34126,7 @@
         <v>90</v>
       </c>
       <c r="AH31" s="5" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>90</v>
@@ -34958,115 +34958,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40">
@@ -35074,115 +35074,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35190,115 +35190,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>375</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>453</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>508</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>550</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>586</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>608</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>634</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>664</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>694</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>725</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>755</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>784</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>817</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42">
